--- a/reports_pdf/brasil/risk-pt/Cases/02-09-2020_brasil_report.xlsx
+++ b/reports_pdf/brasil/risk-pt/Cases/02-09-2020_brasil_report.xlsx
@@ -1171,28 +1171,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>44036</v>
+        <v>44334</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="E24" t="n">
-        <v>0.551063829787234</v>
+        <v>0.8680851063829788</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9764353763426411</v>
+        <v>1.021724130142033</v>
       </c>
       <c r="G24" t="n">
-        <v>3047</v>
+        <v>3345</v>
       </c>
       <c r="H24" t="n">
-        <v>602.1739130434783</v>
+        <v>661.0671936758893</v>
       </c>
       <c r="I24" t="n">
-        <v>2975.198591716027</v>
+        <v>3417.667215325101</v>
       </c>
       <c r="J24" t="n">
-        <v>587.9839114063295</v>
+        <v>675.428303423933</v>
       </c>
     </row>
     <row r="25">
@@ -1341,28 +1341,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4003143</v>
+        <v>4003441</v>
       </c>
       <c r="D29" t="n">
-        <v>43986</v>
+        <v>44284</v>
       </c>
       <c r="E29" t="n">
-        <v>1.030029739776952</v>
+        <v>1.032245353159851</v>
       </c>
       <c r="F29" t="n">
-        <v>1.080686869241121</v>
+        <v>1.081003385438678</v>
       </c>
       <c r="G29" t="n">
-        <v>537765</v>
+        <v>538063</v>
       </c>
       <c r="H29" t="n">
-        <v>263.0313672358388</v>
+        <v>263.177124857544</v>
       </c>
       <c r="I29" t="n">
-        <v>581155.5742374515</v>
+        <v>581647.9245792914</v>
       </c>
       <c r="J29" t="n">
-        <v>284.2545447703102</v>
+        <v>284.4953629410227</v>
       </c>
     </row>
   </sheetData>
